--- a/report/ml_perform_final.xlsx
+++ b/report/ml_perform_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B1FE26-B497-41B9-81BF-CBBCC32EFE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BABE27-05B1-4972-8356-610FC1E98ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="-14385" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId5"/>
+    <pivotCache cacheId="49" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F599520-26AD-40B0-ADC4-7E3D4EB418FC}" name="PivotTable14" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F599520-26AD-40B0-ADC4-7E3D4EB418FC}" name="PivotTable14" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -435,7 +435,7 @@
     <dataField name="Average of mae" fld="0" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -443,7 +443,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -475,7 +475,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -483,7 +483,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CFA2273-AA15-4D1F-B122-9C2E97230E83}" name="PivotTable15" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CFA2273-AA15-4D1F-B122-9C2E97230E83}" name="PivotTable15" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -578,7 +578,7 @@
     <dataField name="Average of mse" fld="1" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -586,7 +586,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -618,7 +618,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -626,7 +626,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -652,7 +652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE21B710-D1E2-413F-936B-C299F8A77AFD}" name="PivotTable17" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE21B710-D1E2-413F-936B-C299F8A77AFD}" name="PivotTable17" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -721,7 +721,7 @@
     <dataField name="Sum of pearson" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -729,7 +729,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -761,7 +761,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -769,7 +769,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A709861-6F42-4FA9-9C17-098AED230171}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCB5150-B9FA-4BF7-97C8-0972D50FE9F9}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/report/ml_perform_final.xlsx
+++ b/report/ml_perform_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BABE27-05B1-4972-8356-610FC1E98ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E0E2B8-5F78-4A12-BA4D-7A4456E77B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId5"/>
+    <pivotCache cacheId="56" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F599520-26AD-40B0-ADC4-7E3D4EB418FC}" name="PivotTable14" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F599520-26AD-40B0-ADC4-7E3D4EB418FC}" name="PivotTable14" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -435,7 +435,7 @@
     <dataField name="Average of mae" fld="0" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -443,7 +443,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -475,7 +475,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -483,7 +483,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CFA2273-AA15-4D1F-B122-9C2E97230E83}" name="PivotTable15" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CFA2273-AA15-4D1F-B122-9C2E97230E83}" name="PivotTable15" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -578,7 +578,7 @@
     <dataField name="Average of mse" fld="1" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -586,7 +586,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -618,7 +618,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -626,7 +626,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -652,7 +652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE21B710-D1E2-413F-936B-C299F8A77AFD}" name="PivotTable17" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE21B710-D1E2-413F-936B-C299F8A77AFD}" name="PivotTable17" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -721,7 +721,7 @@
     <dataField name="Sum of pearson" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -729,7 +729,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -761,7 +761,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -769,7 +769,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -1117,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A709861-6F42-4FA9-9C17-098AED230171}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34EC362-4AA5-4E23-B9EF-13902B429C95}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
